--- a/outputs-HGR-r202/f__Erysipelatoclostridiaceae_train.xlsx
+++ b/outputs-HGR-r202/f__Erysipelatoclostridiaceae_train.xlsx
@@ -6,14 +6,13 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="g__Erysipelatoclostridium-b-p" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="g__Faecalibacillus-b-p" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="g__Longibaculum-b-p" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="g__Massiliomicrobiota-b-p" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="g__Stoquefichus-b-p" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="g__Beduini-b-p" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="g__Catenibacterium-b-p" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="g__Coprobacillus-b-p" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="g__Faecalibacillus-b-p" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="g__Longibaculum-b-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="g__Massiliomicrobiota-b-p" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="g__Stoquefichus-b-p" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="g__Beduini-b-p" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="g__Catenibacterium-b-p" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="g__Coprobacillus-b-p" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="1"/>
@@ -508,3403 +507,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K82"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
-        <is>
-          <t>Row</t>
-        </is>
-      </c>
-      <c r="B1" s="11" t="inlineStr">
-        <is>
-          <t>g__Beduini</t>
-        </is>
-      </c>
-      <c r="C1" s="11" t="inlineStr">
-        <is>
-          <t>g__Catenibacterium</t>
-        </is>
-      </c>
-      <c r="D1" s="11" t="inlineStr">
-        <is>
-          <t>g__Coprobacillus</t>
-        </is>
-      </c>
-      <c r="E1" s="11" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="F1" s="11" t="inlineStr">
-        <is>
-          <t>g__Faecalibacillus</t>
-        </is>
-      </c>
-      <c r="G1" s="11" t="inlineStr">
-        <is>
-          <t>g__Longibaculum</t>
-        </is>
-      </c>
-      <c r="H1" s="11" t="inlineStr">
-        <is>
-          <t>g__Massiliomicrobiota</t>
-        </is>
-      </c>
-      <c r="I1" s="11" t="inlineStr">
-        <is>
-          <t>g__Stoquefichus</t>
-        </is>
-      </c>
-      <c r="J1" s="11" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="K1" s="11" t="inlineStr">
-        <is>
-          <t>actual</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_16.fasta</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.0006188293861854362</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.001149299234834049</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.001627252570662316</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9603782341713786</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.003192614231215653</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.03168339314631179</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.0007022215851693711</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0006481556742427238</v>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_2.fasta</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0005423734370534361</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.002718607763427225</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0007537968340418209</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.9748952167659313</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.009893485969737935</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.009651901059840569</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0002760036633619262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.001268614506605792</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_22.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.0001373143269757946</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0001874083657248829</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.0005837300584409528</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.9747347677382747</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.004696686063276649</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.01681996462446587</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.002536592018868964</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0003035368039720459</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_48.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.0004569990766036335</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.895087266071005e-05</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.001357685184890878</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9600135587422945</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.01091631669681909</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.003249433851477928</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.02386612424717438</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.093132807891114e-05</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_50.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.001189140455047001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>9.755226568260811e-05</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001732753346527498</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9595336080605478</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.02661768922751479</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.006049931113123638</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.004728049304140302</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.127622741638179e-05</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_72.fasta</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.2536664772700177</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0003047094448506903</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.004694038978328558</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.6689050921653735</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.02287576579480192</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.02158364781266426</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.02635019772742268</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.001620070806540619</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_74.fasta</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.354274249263049e-05</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.01269021888004925</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.557181255299882e-05</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.698001422091844e-09</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.86503788187834</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.06524222412855391</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.05692801562271881</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.54123729099802e-06</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>g__Faecalibacillus</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_2.fasta</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.001089725004759867</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002025214638854177</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.001359076185814451</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9166943569956317</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.05400492109208884</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.01476910101130877</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.0001513109567157136</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.009906294114826455</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_4.fasta</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.00843328924735645</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.0004285414573767874</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.00274058318838872</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.9547573042988192</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.02002348267134373</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.01082027638144775</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.000154340986830582</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.002642181768436619</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_7.fasta</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.000687836423611831</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0002191975481125012</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0003449070279936196</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.9182160093520106</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.07605323986263514</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.004023371552362215</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.0001755092208688061</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0002799290124050681</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_0.fasta</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0.0003586893580839102</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0002216253765274672</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.676401443946895e-05</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.9873605973890011</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.006906677028138268</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.00454414070551594</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.000197730512581316</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.0003437756157125452</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_12.fasta</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.03428505171594342</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0008425350599748243</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.004357596075573953</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.8265945616542649</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.02646470711040011</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0849033952152652</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.02204623980572382</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.0005059133628539006</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_20.fasta</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0.1504316368023447</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.002764266616819538</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01487728477879818</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.03021817427103269</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.1026035206682264</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.04304843833351226</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6545680145577905</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.001488663971475779</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>g__Massiliomicrobiota</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_21.fasta</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0.001663799537466613</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.002834744653781954</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0007570936557857189</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.8521421880692176</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.07965472956794373</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.009126297109647921</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.001331277798469319</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.05248986960768723</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_24.fasta</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3.180318693302489e-05</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0001073885941556614</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.0002055768218667628</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.9534159417549084</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.0397113497334978</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.001658142521640264</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.004848050411232343</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.174697576561675e-05</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_27.fasta</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>0.0001421107266859067</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7.059540802900281e-05</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0003534308277174639</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9761756407602656</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.01507092028626905</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.002896616312890569</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.005284033231704059</v>
-      </c>
-      <c r="I17" t="n">
-        <v>6.652446438347691e-06</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_31.fasta</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>0.01450754113196023</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.002061803737231307</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.003428091107082165</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.8687315357673995</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.08383953529149937</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.01087719549846086</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.007618858274917796</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.008935439191448739</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_33.fasta</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0310088985506971</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.4017000298430671</v>
-      </c>
-      <c r="D19" t="n">
-        <v>9.838607122356035e-07</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.08076407759945174</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.05227892322615672</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.4318468922757858</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.002370759222405844</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.943542172342558e-05</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>g__Longibaculum</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_37.fasta</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.0270701843521503</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0006884997354723798</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.001574541161635348</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9305114347342265</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.02604759675302754</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.01343384789597836</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.0003516695054829959</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.0003222258620265466</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_4.fasta</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.0003891169721294885</v>
-      </c>
-      <c r="C21" t="n">
-        <v>8.946999751117966e-05</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.0001555794350510448</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9839894499251388</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.01148086849642483</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.001881374317534399</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.001956118841540731</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.802201466932791e-05</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_42.fasta</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.01074146382482301</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.004499531837180101</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.004788538646121786</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.788621197617308</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.07005938905129622</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.02959509837467084</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.08586836095081136</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.005826419697788782</v>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_5.fasta</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.001073504454750658</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0002469597564290936</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.0002638420816680593</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9699626443208436</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.02377549940971999</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.003140377509771258</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.001419879066665059</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0001172934001523801</v>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_56.fasta</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.00179094462092615</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.000244310491856616</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.002335570302152105</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.8562545447077581</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.08429105010767103</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.02283754760507625</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.03215029452829749</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9.573763626216388e-05</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_62.fasta</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.005094336887677593</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.000217757882921507</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.0007186955413249432</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9493962871109798</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.02356530903283631</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.007113764653996755</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.0137481113495919</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.0001457375406712414</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_67.fasta</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.0159061343336067</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.0005400179008872094</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.0021027361807952</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5728273198817925</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.01346769161166212</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.3691183850787592</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.0248575705157421</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.001180144496755106</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_69.fasta</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.07859388622596593</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.001355203631362343</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1088128260240468</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5178059260046025</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.08583236670248912</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.1097192360693422</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.09662673986391269</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.001253815478278275</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_7.fasta</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.0001880741682083664</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3.955251585593636e-05</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6.013840222568174e-05</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.9827734393885926</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.01500990074315678</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.001180963162293012</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.0007460464098203713</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.885209847142857e-06</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_1.fasta</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.0005877527619024049</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.0001293494471124594</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.376337236456874e-05</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.9652046034473634</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.02037515574559277</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.0136317133822317</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.679678788116398e-05</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.086505555164328e-05</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_9.fasta</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.0003844585136592685</v>
-      </c>
-      <c r="C30" t="n">
-        <v>4.371190296477135e-05</v>
-      </c>
-      <c r="D30" t="n">
-        <v>7.753006730299783e-06</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.9674566146082554</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.0086211231818664</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.02347380169254613</v>
-      </c>
-      <c r="H30" t="n">
-        <v>8.556891930878323e-06</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.980202046836593e-06</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_11.fasta</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.005563353170297674</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.0003279035144893272</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.006348557044917101</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.895915488565599</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.08454241052491868</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.00386911449983977</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.001428207157707235</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.002004965522231173</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_14.fasta</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.0002696656280450107</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.0004709659124894375</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.001621917970228537</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.9030426393626801</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.08347028034969825</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0.009136712534818563</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.0009570376827874059</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.00103078055925262</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_18.fasta</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.002730366026361813</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.0001667241442222088</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.0002847606855923232</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.9586340077409975</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.03184732477038309</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.006200670613313816</v>
-      </c>
-      <c r="H33" t="n">
-        <v>6.311582172101916e-05</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.303019740819433e-05</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_26.fasta</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.0002255727620533943</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.001098138676026961</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.0003532584060300487</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.9648229438918838</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0.01543311546720976</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0.01007889076921996</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.0005113274998098977</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.00747675252776609</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_29.fasta</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.0005079377558740491</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0005636589944403749</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.0003669686423775822</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.9032816735366744</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.07970380949955459</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.01463143821295299</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.0006143581528435884</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.0003301552052824189</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_3.fasta</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.0005774648666230901</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.001978574142598081</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.0003921200562867203</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.9756115301438697</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.01303663558711857</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.004082986318716121</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.000202990448000461</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.004117698436787179</v>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_34.fasta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.004666261754285122</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.000371665792723699</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.0002282486585046302</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.9589145216569137</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0.02191846935089452</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.01378531879043855</v>
-      </c>
-      <c r="H37" t="n">
-        <v>4.215579549554908e-05</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7.335820074419045e-05</v>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_36.fasta</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.001097697986465895</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.005090978512605312</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.0001629066483922392</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.9436739752034734</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.03870581187955434</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.005052207525207323</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.001116896706996353</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.005099525537305053</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_38.fasta</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.002578618909233618</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.0004325814768383957</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6.397391623498028e-05</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.9653185593415018</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.01459543277322428</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.01691277906669684</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7.258973786847944e-05</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2.546477840149666e-05</v>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_40.fasta</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.001940651968265696</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.001165638116881245</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.001714156730342052</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.8811871241872434</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0.1030810897111411</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.003162767969703329</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.004941376841687982</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.002807194474735057</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_43.fasta</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.01410448849404478</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.00141375989362404</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.003520350496665188</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.7966764458415085</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0.06087730805606184</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.1006663977228159</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.02226384772163468</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.0004774017736450908</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_45.fasta</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.7203960764107616</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.0008532064010995734</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.007624367175313968</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.0003245308764787444</v>
-      </c>
-      <c r="F42" t="n">
-        <v>0.2435209299100823</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.02538394852965924</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.001896738161950992</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.025346535544828e-07</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>g__Beduini</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_46.fasta</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0.002841159432834091</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.01046755805875059</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.001973188067187337</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.7342215180989096</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.1196500803030305</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.04245273355353629</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.06495580527574128</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.02343795721001026</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_47.fasta</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>0.005417374949767072</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.001007509147523845</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.004705747033305788</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.8269331823468821</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0.04881828560433793</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0.1087115301117031</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0033620947845711</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.001044276021909244</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_51.fasta</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>0.004518685270455836</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.0001174345618809701</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.0007477227956113151</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.9703912724313035</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.01709268940368008</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.006543871919685</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.0005494837261756617</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.883989120762914e-05</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_52.fasta</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>0.01114317668647362</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.3617202996033151</v>
-      </c>
-      <c r="D46" t="n">
-        <v>7.211415485028752e-09</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.204330089062844</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.00217206756990672</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0.4202633608796865</v>
-      </c>
-      <c r="H46" t="n">
-        <v>5.040253080599908e-06</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.0003659587332778875</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>g__Longibaculum</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_54.fasta</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>0.1291898670720601</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.0001693501929786763</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.0002293107663379671</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.8642089889864465</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.004322052809355836</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0.001545884550360402</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.000312796205182363</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.174941727831094e-05</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_55.fasta</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>0.01015238636687368</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.0006988249424098352</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.0007933139772177534</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.9274204853361255</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.03931157229067001</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0.01575390566109737</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.005275071479445244</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0.0005944399461605952</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_60.fasta</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0.008069604753254044</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0005646983314855832</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0003419117487884164</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.9273968634555154</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0178586251053556</v>
-      </c>
-      <c r="G49" t="n">
-        <v>0.04487525471457088</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.0008014126074815475</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9.162928354854367e-05</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_63.fasta</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.2119429731922544</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.0007451264432115123</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.000100405737716534</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.7524360862355515</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.03181384755906035</v>
-      </c>
-      <c r="G50" t="n">
-        <v>0.002523312866816319</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.0004269187316525231</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1.132923373699061e-05</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_65.fasta</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.009351514494179564</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.0009211151518533672</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.001029983051018806</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.871305912819196</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.06247082973547129</v>
-      </c>
-      <c r="G51" t="n">
-        <v>0.04700481310921049</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.007193196159085589</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0.0007226354799849378</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_66.fasta</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.009012015183521672</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.003918603396122153</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.001407606400958409</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.7943852014686519</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.128445050618044</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.05413636446999238</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.005969294637182813</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0.002725863825526803</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_8.fasta</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.0003276285026545523</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.0003015167228329104</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.0001074994088100523</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.9738832623378223</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.01698720743744785</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0.008189891462482248</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.0001786706335307653</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2.432349441928413e-05</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_9.fasta</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>3.943697955055894e-05</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.0002159879880339402</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.0006782248393436758</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.9380926481904709</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.05482668989596004</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0.003361085518476045</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.002717825040284997</v>
-      </c>
-      <c r="I54" t="n">
-        <v>6.810154787994774e-05</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_6.fasta</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.002336569459780315</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.0003591821796778551</v>
-      </c>
-      <c r="D55" t="n">
-        <v>9.69480742637111e-05</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.9673116778481522</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.01771562892557367</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0.01122414158277458</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4.59469097485238e-07</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0.0009553924606802112</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000244855_0.fasta</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.005926760935573499</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.0003071080211256106</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.003217376030080436</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.9689550571966667</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.008070215830149699</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.01270327884048095</v>
-      </c>
-      <c r="H56" t="n">
-        <v>7.086042438015787e-06</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0.0008131171034850991</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000244855_5.fasta</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.07709991696701693</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.008236721372711631</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.01251328070199924</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.01579950784622153</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.6960409523094107</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0.08811930443989482</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.1018366017600769</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.0003537146026683409</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>g__Faecalibacillus</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_1.fasta</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.0009493571824328331</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1.564857242339764e-05</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.002131037598901579</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.9896377806863097</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.005444960126116849</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0.001480357647147743</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.0003408357468934375</v>
-      </c>
-      <c r="I58" t="n">
-        <v>2.243977458586629e-08</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_13.fasta</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.02078873344184069</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3.951705692947439e-05</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.005674078170317453</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.9645861947097413</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.005598863497405292</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0.00233760693113235</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.0009746363888004256</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.698038331070512e-07</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_17.fasta</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.003475385168006892</v>
-      </c>
-      <c r="C60" t="n">
-        <v>2.387066659126166e-05</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.001106715416288119</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.9821527090651594</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.01219780533724288</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0.0006476897403942534</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.000395667399653574</v>
-      </c>
-      <c r="I60" t="n">
-        <v>1.572066637126672e-07</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_19.fasta</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.001499087817673582</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.0001248268379841679</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.003189588429376365</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.9801383628945409</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.01031347123211649</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0.001830033358080772</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0.001746333105285268</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0.001158296324942372</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_23.fasta</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.002683974482750697</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.000112257544027888</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.003831670201373469</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.9720067728622344</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.01530671148286618</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0.001299592142232023</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.004742828711624147</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1.619257289125335e-05</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_30.fasta</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.003679317301928755</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.0001894754241943965</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.004798346174952762</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.9470654256896659</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.03317745099090317</v>
-      </c>
-      <c r="G63" t="n">
-        <v>0.005585377481927405</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.005472995528416806</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.16114080108326e-05</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_39.fasta</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.00408837201288965</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2.669008532833776e-05</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.001446771374780527</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.9779534990828086</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.01469854498367548</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0.00105714650143244</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.0007280300399533968</v>
-      </c>
-      <c r="I64" t="n">
-        <v>9.4591913154489e-07</v>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_53.fasta</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.00158002275982084</v>
-      </c>
-      <c r="C65" t="n">
-        <v>7.93730067034525e-05</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.001297500169588527</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.9670183213326262</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.01188338187277028</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.01238954623121745</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.005738602828726343</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1.325179854678813e-05</v>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_57.fasta</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.04828754151372078</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.0004415736679503667</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.001749908797774059</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.9204718370880816</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.01316747251084529</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0.01459065317612432</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.001198027137845791</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9.298610765767838e-05</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_70.fasta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.009398035752636211</v>
-      </c>
-      <c r="C67" t="n">
-        <v>5.252462985526797e-05</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.008941115875415484</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.4565838630375005</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.1185627940200093</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.2737285439864787</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.1326764964725223</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5.662622558215963e-05</v>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_0.fasta</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.001239927071303604</v>
-      </c>
-      <c r="C68" t="n">
-        <v>8.629126271816592e-05</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.002443541770822929</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0.9769325155576348</v>
-      </c>
-      <c r="F68" t="n">
-        <v>0.01228155714749151</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.006564847142154838</v>
-      </c>
-      <c r="H68" t="n">
-        <v>9.923081162265058e-06</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0.0004413969667119097</v>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_3.fasta</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.00141013407203964</v>
-      </c>
-      <c r="C69" t="n">
-        <v>4.913905930738412e-05</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.004026759505549874</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0.9627843659604852</v>
-      </c>
-      <c r="F69" t="n">
-        <v>0.01242959362305585</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0.0187448956602514</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.0005460843986100656</v>
-      </c>
-      <c r="I69" t="n">
-        <v>9.027720700445152e-06</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_8.fasta</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.005503256022582831</v>
-      </c>
-      <c r="C70" t="n">
-        <v>3.269932686361396e-05</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.003582999542190667</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0.9826414915700714</v>
-      </c>
-      <c r="F70" t="n">
-        <v>0.005538863685873952</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.002639205287730593</v>
-      </c>
-      <c r="H70" t="n">
-        <v>3.854696098577278e-05</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2.293760370124028e-05</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000244855_2.fasta</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.0101409442722472</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.0001316200552440526</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.01272984631674506</v>
-      </c>
-      <c r="E71" t="n">
-        <v>0.9474641028994273</v>
-      </c>
-      <c r="F71" t="n">
-        <v>0.01203400381400552</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0.01733611404155514</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.0001250779626521577</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.82906381236283e-05</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000244855_4.fasta</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.009253844722656741</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.0008305672943481476</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.004557918237457994</v>
-      </c>
-      <c r="E72" t="n">
-        <v>0.9689385134843382</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0.002823635845262182</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0.01345537938821308</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3.867860334664618e-05</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.0001014624243770302</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_16.fasta</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.0006188293861854362</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.001149299234834049</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.001627252570662316</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0.9603782341713786</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.003192614231215653</v>
-      </c>
-      <c r="G73" t="n">
-        <v>0.03168339314631179</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.0007022215851693711</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.0006481556742427238</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_2.fasta</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.0005423734370534361</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.002718607763427225</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.0007537968340418209</v>
-      </c>
-      <c r="E74" t="n">
-        <v>0.9748952167659313</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.009893485969737935</v>
-      </c>
-      <c r="G74" t="n">
-        <v>0.009651901059840569</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.0002760036633619262</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.001268614506605792</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_22.fasta</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.0001373143269757946</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.0001874083657248829</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.0005837300584409528</v>
-      </c>
-      <c r="E75" t="n">
-        <v>0.9747347677382747</v>
-      </c>
-      <c r="F75" t="n">
-        <v>0.004696686063276649</v>
-      </c>
-      <c r="G75" t="n">
-        <v>0.01681996462446587</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.002536592018868964</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0.0003035368039720459</v>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_48.fasta</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.0004569990766036335</v>
-      </c>
-      <c r="C76" t="n">
-        <v>5.895087266071005e-05</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.001357685184890878</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.9600135587422945</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.01091631669681909</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.003249433851477928</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.02386612424717438</v>
-      </c>
-      <c r="I76" t="n">
-        <v>8.093132807891114e-05</v>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_50.fasta</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.001189140455047001</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9.755226568260811e-05</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.001732753346527498</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0.9595336080605478</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0.02661768922751479</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.006049931113123638</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.004728049304140302</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5.127622741638179e-05</v>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_72.fasta</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.2536664772700177</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.0003047094448506903</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.004694038978328558</v>
-      </c>
-      <c r="E78" t="n">
-        <v>0.6689050921653735</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.02287576579480192</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.02158364781266426</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.02635019772742268</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0.001620070806540619</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="11" t="inlineStr">
-        <is>
-          <t>label_12718_7_81_74.fasta</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>2.354274249263049e-05</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.01269021888004925</v>
-      </c>
-      <c r="D79" t="n">
-        <v>7.557181255299882e-05</v>
-      </c>
-      <c r="E79" t="n">
-        <v>3.698001422091844e-09</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0.86503788187834</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.06524222412855391</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.05692801562271881</v>
-      </c>
-      <c r="I79" t="n">
-        <v>2.54123729099802e-06</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>g__Faecalibacillus</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_2.fasta</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.001089725004759867</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.002025214638854177</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.001359076185814451</v>
-      </c>
-      <c r="E80" t="n">
-        <v>0.9166943569956317</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.05400492109208884</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.01476910101130877</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.0001513109567157136</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0.009906294114826455</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_4.fasta</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.00843328924735645</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.0004285414573767874</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.00274058318838872</v>
-      </c>
-      <c r="E81" t="n">
-        <v>0.9547573042988192</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.02002348267134373</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.01082027638144775</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.000154340986830582</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0.002642181768436619</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="11" t="inlineStr">
-        <is>
-          <t>label_GCF_000154805_7.fasta</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.000687836423611831</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.0002191975481125012</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0.0003449070279936196</v>
-      </c>
-      <c r="E82" t="n">
-        <v>0.9182160093520106</v>
-      </c>
-      <c r="F82" t="n">
-        <v>0.07605323986263514</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.004023371552362215</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.0001755092208688061</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.0002799290124050681</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>g__Erysipelatoclostridium</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:K483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23737,7 +20339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35785,7 +32387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -41560,7 +38162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -42456,7 +39058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -48811,7 +45413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -64214,7 +60816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
